--- a/WEEKLUCK.xlsx
+++ b/WEEKLUCK.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The professional front may be very active for the Taurus native. Entrepreneurs may hit the bull’s eye by signing and negotiating major business deals.Those looking out for expanding or merging manufacturing businesses may face hurdles but could finally crack the deal.Work professionals may find it frustrating to successfullyhit targets as pressure maymount to get assignments completed on time.Your may have a gala time with your familyas things appear to sail smoothly on the domestic front .Be careful about your spending habits and see to it that you channelize your finances in the right direction.As stated before you may be in the pink of health during this period with a healthy lifestyle. Monetary issues will not be grave as you may maintain a commendable bank balance.</t>
+          <t>The period may bring in good tidings for the Scorpio natives.They may be in high spirits and may strike huge profit deals.They may make phenomenal progress on the financial and occupational front.Businessmen need to improve the quality of their products.They may venture into risky deals to sharpen their business skills.Singles may have to back off from getting into relationships as it may not be the right time for things to materialise.Things may gradually change for you so patience will be the need of the hour.Financial prospects may yield good resultsbut at the same time you may need to get health conscious.All over the week may bring in opportunities which may reap excellent monetary returns.</t>
         </is>
       </c>
     </row>
@@ -458,7 +458,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>taurus</t>
+          <t>scorpio</t>
         </is>
       </c>
     </row>
